--- a/biology/Zoologie/Acarapis_woodi/Acarapis_woodi.xlsx
+++ b/biology/Zoologie/Acarapis_woodi/Acarapis_woodi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acarapis woodi est un acarien parasite interne de l'abeille. Il vit et se reproduit dans l'appareil respiratoire de l'abeille, notamment dans la première paire de trachées thoraciques. La femelle pond à l’entrée ou dans la trachée. L’accouplement des Acarapis mâle et femelle a lieu à l’intérieur des trachées. Le parasite perfore la paroi de la trachée et se nourrit de l’hémolymphe de l’abeille : il l'affaiblit et gène sa respiration.
-Acarapis woodi provoque l’acariose des abeilles[1] ou acariose des trachées, une maladie qui peut gravement affaiblir les colonies d'abeilles. L'acariose des trachées à Acarapis woodi a été observée la première fois sur l’île de Wight au début du XXe siècle. Elle est à l’origine de la création de l'abeille Buckfast, une race d'abeilles créée par Karl Kehrle pour résister à cet acarien qui décimait le rucher de l'abbaye de Buckfast[2].
+Acarapis woodi provoque l’acariose des abeilles ou acariose des trachées, une maladie qui peut gravement affaiblir les colonies d'abeilles. L'acariose des trachées à Acarapis woodi a été observée la première fois sur l’île de Wight au début du XXe siècle. Elle est à l’origine de la création de l'abeille Buckfast, une race d'abeilles créée par Karl Kehrle pour résister à cet acarien qui décimait le rucher de l'abbaye de Buckfast.
 Cet acarien est l'un des possibles responsables de la maladie de la disparition qui touche durement les États-Unis et semble se répandre en Europe au cours du printemps 2007[réf. nécessaire].
 </t>
         </is>
